--- a/resource_tracking/prep/hierarchical_service_delivery_area_maps.xlsx
+++ b/resource_tracking/prep/hierarchical_service_delivery_area_maps.xlsx
@@ -10772,8 +10772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A1494" workbookViewId="0">
+      <selection activeCell="D1524" sqref="D1524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/resource_tracking/prep/hierarchical_service_delivery_area_maps.xlsx
+++ b/resource_tracking/prep/hierarchical_service_delivery_area_maps.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3217" uniqueCount="2788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3234" uniqueCount="2788">
   <si>
     <t>HIV/AIDS care and support</t>
   </si>
@@ -10641,7 +10641,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10785,10 +10785,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1521"/>
+  <dimension ref="A1:H1522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="32.265625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10940,7 +10940,9 @@
       <c r="F7" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="9"/>
+      <c r="G7" t="s">
+        <v>740</v>
+      </c>
       <c r="H7" t="s">
         <v>448</v>
       </c>
@@ -10958,7 +10960,9 @@
       <c r="F8" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="9"/>
+      <c r="G8" t="s">
+        <v>735</v>
+      </c>
       <c r="H8" t="s">
         <v>449</v>
       </c>
@@ -10976,7 +10980,9 @@
       <c r="F9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="9"/>
+      <c r="G9" t="s">
+        <v>740</v>
+      </c>
       <c r="H9" t="s">
         <v>450</v>
       </c>
@@ -10994,7 +11000,9 @@
       <c r="F10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="9"/>
+      <c r="G10" t="s">
+        <v>735</v>
+      </c>
       <c r="H10" t="s">
         <v>451</v>
       </c>
@@ -11012,7 +11020,9 @@
       <c r="F11" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="9"/>
+      <c r="G11" t="s">
+        <v>740</v>
+      </c>
       <c r="H11" t="s">
         <v>452</v>
       </c>
@@ -11050,7 +11060,9 @@
       <c r="F13" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="G13" t="s">
+        <v>740</v>
+      </c>
       <c r="H13" t="s">
         <v>454</v>
       </c>
@@ -11348,7 +11360,9 @@
       <c r="F28" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G28" s="11"/>
+      <c r="G28" t="s">
+        <v>741</v>
+      </c>
       <c r="H28" t="s">
         <v>469</v>
       </c>
@@ -11386,7 +11400,9 @@
       <c r="F30" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G30" s="11"/>
+      <c r="G30" t="s">
+        <v>741</v>
+      </c>
       <c r="H30" t="s">
         <v>471</v>
       </c>
@@ -11464,7 +11480,9 @@
       <c r="F34" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="G34" s="11"/>
+      <c r="G34" t="s">
+        <v>741</v>
+      </c>
       <c r="H34" t="s">
         <v>475</v>
       </c>
@@ -11482,7 +11500,9 @@
       <c r="F35" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="11"/>
+      <c r="G35" s="9" t="s">
+        <v>734</v>
+      </c>
       <c r="H35" t="s">
         <v>769</v>
       </c>
@@ -11500,7 +11520,9 @@
       <c r="F36" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G36" s="11"/>
+      <c r="G36" t="s">
+        <v>735</v>
+      </c>
       <c r="H36" t="s">
         <v>770</v>
       </c>
@@ -11558,9 +11580,11 @@
       <c r="F39" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G39" s="11"/>
+      <c r="G39" t="s">
+        <v>741</v>
+      </c>
       <c r="H39" t="s">
-        <v>2764</v>
+        <v>2751</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -11576,9 +11600,11 @@
       <c r="F40" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G40" s="11"/>
+      <c r="G40" t="s">
+        <v>741</v>
+      </c>
       <c r="H40" t="s">
-        <v>2752</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
@@ -11594,9 +11620,11 @@
       <c r="F41" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="11"/>
+      <c r="G41" t="s">
+        <v>741</v>
+      </c>
       <c r="H41" t="s">
-        <v>2751</v>
+        <v>2749</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
@@ -11612,9 +11640,11 @@
       <c r="F42" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G42" s="11"/>
+      <c r="G42" t="s">
+        <v>741</v>
+      </c>
       <c r="H42" t="s">
-        <v>2750</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
@@ -11630,9 +11660,11 @@
       <c r="F43" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="G43" s="11"/>
+      <c r="G43" t="s">
+        <v>741</v>
+      </c>
       <c r="H43" t="s">
-        <v>2749</v>
+        <v>2747</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
@@ -11648,9 +11680,11 @@
       <c r="F44" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G44" s="11"/>
+      <c r="G44" t="s">
+        <v>741</v>
+      </c>
       <c r="H44" t="s">
-        <v>2748</v>
+        <v>2746</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
@@ -11667,9 +11701,6 @@
         <v>206</v>
       </c>
       <c r="G45" s="11"/>
-      <c r="H45" t="s">
-        <v>2747</v>
-      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="7"/>
@@ -11685,9 +11716,6 @@
         <v>12</v>
       </c>
       <c r="G46" s="11"/>
-      <c r="H46" t="s">
-        <v>2746</v>
-      </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="7"/>
@@ -17947,6 +17975,9 @@
       <c r="B547" t="s">
         <v>1591</v>
       </c>
+      <c r="D547" t="s">
+        <v>2752</v>
+      </c>
     </row>
     <row r="548" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B548" t="s">
@@ -22816,6 +22847,11 @@
     <row r="1521" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B1521" t="s">
         <v>2783</v>
+      </c>
+    </row>
+    <row r="1522" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B1522" t="s">
+        <v>2764</v>
       </c>
     </row>
   </sheetData>
@@ -22832,7 +22868,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B15"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
